--- a/similarities/split_global/harmonic_similarity_timestamps_232.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_232.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:38.620000')]</t>
+          <t>('0:01:04.680000', '0:01:10.020000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.120000', '0:00:50.740000')]</t>
+          <t>('0:00:39.940000', '0:00:49.640000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=39.94</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
+          <t>('0:00:00.360000', '0:00:07.140000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:03.880000', '0:01:19')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=63.88']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:00.360000', '0:00:39')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.590000', '0:00:16.750000')]</t>
+          <t>('0:02:23.500000', '0:02:56.780000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=143.5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:43.540000', '0:01:00')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:01:04.080000', '0:01:11.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:12.020000'), ('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['A', 'D', 'G']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000'), ('0:01:00.898000', '0:01:07.056000')]</t>
+          <t>('0:00:20.780000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.294000', '0:00:06.536000'), ('0:00:07.605000', '0:00:12.648000')]</t>
+          <t>('0:00:36.020000', '0:00:45.640000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=20.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=3.294', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=7.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=36.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:00.500000', '0:00:03.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:00:21.940000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.980000', '0:00:08.680000')]</t>
+          <t>('0:00:36.200000', '0:00:42.920000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
+          <t>('0:01:58.584331', '0:02:07.280204')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=36.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:48.420000', '0:00:58.560000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000')]</t>
+          <t>('0:00:00.360000', '0:00:03.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=48.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['C#/F', 'A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:21.440000')]</t>
+          <t>('0:01:09', '0:01:14.900000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:55.760000')]</t>
+          <t>('0:01:41.100000', '0:01:54.020000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=101.1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'G', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:39.201655', '0:00:46.167641')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:26.280000', '0:00:30.180000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=39.201655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=26.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['A:7', 'D:maj', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['D', 'G:7', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000'), ('0:00:13.420000', '0:00:19.500000'), ('0:00:36.740000', '0:00:42.320000'), ('0:00:35.140000', '0:00:39.900000')]</t>
+          <t>('0:00:13.440816', '0:00:20.824761')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.940000', '0:00:27.520000'), ('0:00:07.220000', '0:00:10.760000'), ('0:00:11.820000', '0:00:18.540000'), ('0:00:33.680000', '0:00:36'), ('0:00:38.200000', '0:00:39.980000')]</t>
+          <t>('0:00:00.400000', '0:00:05.010000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=36.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=13.440816</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=33.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=0.4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['Eb:7', 'Ab:maj', 'Ab/7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:01.052063', '0:01:13.416689')]</t>
+          <t>('0:00:54.072000', '0:00:59.053000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:27.260000', '0:01:31.120000')]</t>
+          <t>('0:03:47.620000', '0:03:55.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=61.052063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=54.072</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=87.26']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=227.62</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'G:min', 'D']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'D#:min/F#', 'A#:maj/F']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:04.737522', '0:02:11.471309')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:12.040000', '0:01:13.960000')]</t>
+          <t>('0:00:17.980000', '0:00:26.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=72.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
